--- a/data/railway_restricted_links.xlsx
+++ b/data/railway_restricted_links.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
@@ -70,9 +70,6 @@
     <t>44-46</t>
   </si>
   <si>
-    <t>63-67</t>
-  </si>
-  <si>
     <t>11-1011</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>69-70</t>
+  </si>
+  <si>
+    <t>59-60</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,7 +489,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,29 +577,29 @@
         <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>453</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,62 +654,62 @@
         <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>245</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>340</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
